--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/03.BaoGiaBH/BG201104_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/03.BaoGiaBH/BG201104_TarisSG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhongKyThuat\2. Baocaobaohanh\Nam2020\Thang10\03.BaogiaBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\03.BaoGiaBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -98,9 +98,6 @@
     <t>H</t>
   </si>
   <si>
-    <t>Module GPS</t>
-  </si>
-  <si>
     <t>Tên cty/ cá nhân: Taris SG</t>
   </si>
   <si>
@@ -125,22 +122,10 @@
     <t>Bộ nhớ LE</t>
   </si>
   <si>
-    <t>VT_Module_SIM28M</t>
-  </si>
-  <si>
     <t>VT_Connector_MX3.0 chân thẳng 2*2p</t>
   </si>
   <si>
     <t>Connector</t>
-  </si>
-  <si>
-    <t>TG102SE</t>
-  </si>
-  <si>
-    <t>VT_Module_SIM800C</t>
-  </si>
-  <si>
-    <t>Module GSM</t>
   </si>
   <si>
     <t>Mã số phiếu: BG201104</t>
@@ -632,7 +617,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -719,9 +704,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -740,6 +722,63 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -760,63 +799,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1172,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA47"/>
+  <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:I21"/>
+      <selection activeCell="E19" sqref="E19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1203,96 +1185,96 @@
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="E5" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="59" t="s">
+      <c r="A6" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="13"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
@@ -1300,10 +1282,10 @@
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="46"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="26"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
@@ -1314,13 +1296,13 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="14"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -1328,10 +1310,10 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="26"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -1343,10 +1325,10 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="47"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="27"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
@@ -1394,19 +1376,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="37">
+        <v>28</v>
+      </c>
+      <c r="C13" s="36">
         <v>867857039930164</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="38" t="s">
         <v>30</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>31</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>23</v>
@@ -1427,24 +1409,24 @@
         <v>2</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="37">
+        <v>28</v>
+      </c>
+      <c r="C14" s="36">
         <v>868183033808093</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="40" t="s">
         <v>32</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>33</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="41">
         <v>1</v>
       </c>
       <c r="I14" s="28">
@@ -1460,170 +1442,117 @@
         <v>3</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="37">
-        <v>868183035906499</v>
+        <v>28</v>
+      </c>
+      <c r="C15" s="36">
+        <v>868183034807326</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="28" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="28">
         <v>1</v>
       </c>
       <c r="I15" s="35">
-        <v>310000</v>
+        <v>10000</v>
       </c>
       <c r="J15" s="35">
-        <v>310000</v>
+        <v>10000</v>
       </c>
       <c r="AA15" s="16"/>
     </row>
-    <row r="16" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>4</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="37">
-        <v>868183034807326</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="29" t="s">
+    <row r="16" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="34">
+        <f>SUM(J13:J15)</f>
+        <v>155000</v>
+      </c>
+      <c r="AA16" s="16"/>
+    </row>
+    <row r="17" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
+      <c r="AA17" s="16"/>
+    </row>
+    <row r="18" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
+      <c r="AA18" s="16"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E19" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="28">
-        <v>1</v>
-      </c>
-      <c r="I16" s="35">
-        <v>10000</v>
-      </c>
-      <c r="J16" s="35">
-        <v>10000</v>
-      </c>
-      <c r="AA16" s="16"/>
-    </row>
-    <row r="17" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
-        <v>5</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="36">
-        <v>862631034714401</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="28">
-        <v>1</v>
-      </c>
-      <c r="I17" s="35">
-        <v>220000</v>
-      </c>
-      <c r="J17" s="35">
-        <v>220000</v>
-      </c>
-      <c r="AA17" s="16"/>
-    </row>
-    <row r="18" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="34">
-        <f>SUM(J13:J17)</f>
-        <v>685000</v>
-      </c>
-      <c r="AA18" s="16"/>
-    </row>
-    <row r="19" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="25"/>
       <c r="AA19" s="16"/>
     </row>
-    <row r="20" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
       <c r="AA20" s="16"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E21" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="25"/>
+      <c r="E21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="AA21" s="16"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="1"/>
       <c r="AA22" s="16"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
@@ -1633,52 +1562,45 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E24" s="1"/>
-      <c r="F24" s="20" t="s">
-        <v>20</v>
-      </c>
       <c r="H24" s="1"/>
       <c r="AA24" s="16"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E25" s="1"/>
-      <c r="H25" s="1"/>
+    <row r="25" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
       <c r="AA25" s="16"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E26" s="1"/>
-      <c r="H26" s="1"/>
+    <row r="26" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
       <c r="AA26" s="16"/>
     </row>
     <row r="27" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
+      <c r="F27" s="24"/>
       <c r="AA27" s="16"/>
     </row>
     <row r="28" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
+      <c r="E28" s="24"/>
       <c r="AA28" s="16"/>
     </row>
-    <row r="29" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="F29" s="24"/>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA29" s="16"/>
     </row>
-    <row r="30" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="E30" s="24"/>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA30" s="16"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
@@ -1725,34 +1647,28 @@
     </row>
     <row r="45" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA45" s="16"/>
-    </row>
-    <row r="46" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA46" s="16"/>
-    </row>
-    <row r="47" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA47" s="16"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B9:F9"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="E5:J5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="A25:E25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" display="mailto:contact@vn-et.com"/>
